--- a/resources/1/2019-01-10 to 01-20.xlsx
+++ b/resources/1/2019-01-10 to 01-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ut\covid-19-Analysis\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ut\covid-19-Analysis\resources\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA04626-7042-42A6-9F80-7876FAB58C2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48566B69-725A-4F87-BC97-DDE503AAD459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{93A9EB5B-EB2B-4497-8A9E-D2DBF8DD01DB}"/>
+    <workbookView xWindow="10776" yWindow="2160" windowWidth="15672" windowHeight="11424" xr2:uid="{93A9EB5B-EB2B-4497-8A9E-D2DBF8DD01DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t>Province/State</t>
   </si>
@@ -74,9 +74,6 @@
     <t>1/16/2020  22:00:00 PM</t>
   </si>
   <si>
-    <t>Thanland</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>1/20/2020  22:00:00 PM</t>
   </si>
   <si>
-    <t>korean</t>
-  </si>
-  <si>
     <t>Shanghai</t>
   </si>
   <si>
@@ -114,6 +108,12 @@
   </si>
   <si>
     <t>new_confirmed</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>South Korea</t>
   </si>
 </sst>
 </file>
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E46670F-CBF0-4380-95FA-231A0D285256}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -600,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>41</v>
@@ -646,7 +646,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>45</v>
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>62</v>
@@ -692,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>121</v>
@@ -715,7 +715,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>198</v>
@@ -738,7 +738,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>270</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="13" spans="1:7" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -778,13 +778,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -801,10 +801,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>14</v>
@@ -819,32 +822,84 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -859,83 +914,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>291</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>27</v>
-      </c>
-      <c r="G23">
         <v>93</v>
       </c>
     </row>
